--- a/biology/Microbiologie/Bactérie_de_la_dysenterie_porcine/Bactérie_de_la_dysenterie_porcine.xlsx
+++ b/biology/Microbiologie/Bactérie_de_la_dysenterie_porcine/Bactérie_de_la_dysenterie_porcine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_de_la_dysenterie_porcine</t>
+          <t>Bactérie_de_la_dysenterie_porcine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Brachyspira hyodysenteriae
-La Bactérie de la dysenterie porcine (Brachyspira hyodysenteriae) est une bactérie de la famille des Serpulinaceae. C'est l'agent responsable de la dysenterie porcine[2].
+La Bactérie de la dysenterie porcine (Brachyspira hyodysenteriae) est une bactérie de la famille des Serpulinaceae. C'est l'agent responsable de la dysenterie porcine.
 Synonymes :
-Serpulina hyodysenteriae[2]
-Treponema hyodysenteriae[3]</t>
+Serpulina hyodysenteriae
+Treponema hyodysenteriae</t>
         </is>
       </c>
     </row>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_de_la_dysenterie_porcine</t>
+          <t>Bactérie_de_la_dysenterie_porcine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 février 2015)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 février 2015) :
 non-classé Brachyspira hyodysenteriae ATCC 27164
 non-classé Brachyspira hyodysenteriae ATCC 31212
 non-classé Brachyspira hyodysenteriae P7455
